--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st04.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st04.xlsx
@@ -44,7 +44,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zima approaches Natalya, her companion in the Ursus Student Self-government Group. Both of them have questions to ask, as well as things they want to confide.
+    <t xml:space="preserve">Zima approaches Natalya, her companion in the Ursus Student Self-Governing Group. Both of them have questions to ask, as well as things they want to confide.
 </t>
   </si>
   <si>
